--- a/ShopNow/Content/ExcelUpload/FMCGUpload.xlsx
+++ b/ShopNow/Content/ExcelUpload/FMCGUpload.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -35,12 +35,6 @@
     <t>Price</t>
   </si>
   <si>
-    <t>SubCategoryName1</t>
-  </si>
-  <si>
-    <t>SubCategoryName2</t>
-  </si>
-  <si>
     <t>Brand Name</t>
   </si>
   <si>
@@ -83,18 +77,9 @@
     <t>Image5</t>
   </si>
   <si>
-    <t>testing fmcg</t>
-  </si>
-  <si>
     <t>testcat123</t>
   </si>
   <si>
-    <t>testsubcat123</t>
-  </si>
-  <si>
-    <t>testnextsubcat123</t>
-  </si>
-  <si>
     <t>test brand</t>
   </si>
   <si>
@@ -111,6 +96,9 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>testing fmcg upload</t>
   </si>
 </sst>
 </file>
@@ -456,32 +444,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="20.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" style="4" customWidth="1"/>
-    <col min="15" max="19" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="4"/>
+    <col min="3" max="3" width="13.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" style="4" customWidth="1"/>
+    <col min="13" max="17" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,13 +503,13 @@
         <v>11</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>14</v>
@@ -533,70 +520,58 @@
       <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="D2" s="4">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="F2" s="4">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="I2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="4">
+        <v>215645</v>
+      </c>
+      <c r="K2" s="4">
+        <v>12231</v>
+      </c>
+      <c r="L2" s="4">
+        <v>125</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="4">
-        <v>12</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="4">
-        <v>10</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="4">
-        <v>215645</v>
-      </c>
-      <c r="M2" s="4">
-        <v>12231</v>
-      </c>
-      <c r="N2" s="4">
-        <v>125</v>
-      </c>
       <c r="O2" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
